--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2728,6 +2728,67 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45305</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D38" t="n">
+        <v>87</v>
+      </c>
+      <c r="E38" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G38" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="J38" t="n">
+        <v>91.2</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>104</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="N38" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="O38" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>109</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2742,7 +2803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2769,11 +2830,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45305</v>
+        <v>45308</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2782,24 +2843,24 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45308</v>
+        <v>45310</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>SAS</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2808,24 +2869,24 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45311</v>
+        <v>45313</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45313</v>
+        <v>45315</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -2834,24 +2895,24 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45315</v>
+        <v>45317</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45317</v>
+        <v>45318</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -2860,11 +2921,11 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45318</v>
+        <v>45320</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -2873,11 +2934,11 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -2886,37 +2947,37 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45326</v>
+        <v>45327</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -2925,11 +2986,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -2938,37 +2999,37 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -2977,11 +3038,11 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2990,24 +3051,24 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3016,11 +3077,11 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3029,11 +3090,11 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3042,7 +3103,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -3050,29 +3111,29 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3081,63 +3142,63 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3146,37 +3207,37 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3185,11 +3246,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3198,11 +3259,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3211,7 +3272,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3219,16 +3280,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3237,11 +3298,11 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3250,11 +3311,11 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3263,11 +3324,11 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3276,11 +3337,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3289,11 +3350,11 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -3302,11 +3363,11 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -3315,24 +3376,24 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -3341,27 +3402,14 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2790,6 +2790,250 @@
       </c>
       <c r="S38" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45308</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D39" t="n">
+        <v>112</v>
+      </c>
+      <c r="E39" t="n">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="G39" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="H39" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="J39" t="n">
+        <v>121.2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>132</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.642</v>
+      </c>
+      <c r="N39" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="O39" t="n">
+        <v>38.1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>142.9</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45310</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>124</v>
+      </c>
+      <c r="E40" t="n">
+        <v>96.5</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="G40" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="H40" t="n">
+        <v>27</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="J40" t="n">
+        <v>128.5</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>120</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.649</v>
+      </c>
+      <c r="N40" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="O40" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>124.3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D41" t="n">
+        <v>89</v>
+      </c>
+      <c r="E41" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G41" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H41" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="J41" t="n">
+        <v>90.59999999999999</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>97</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="N41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O41" t="n">
+        <v>13</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>128</v>
+      </c>
+      <c r="E42" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.648</v>
+      </c>
+      <c r="G42" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H42" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="J42" t="n">
+        <v>130</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>125</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="N42" t="n">
+        <v>12</v>
+      </c>
+      <c r="O42" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2803,7 +3047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2830,11 +3074,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45308</v>
+        <v>45315</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -2843,11 +3087,11 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45310</v>
+        <v>45317</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -2856,11 +3100,11 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45311</v>
+        <v>45318</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -2869,50 +3113,50 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45320</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45315</v>
+        <v>45322</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45317</v>
+        <v>45324</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45318</v>
+        <v>45326</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -2921,11 +3165,11 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45320</v>
+        <v>45327</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -2934,11 +3178,11 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45322</v>
+        <v>45329</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -2947,11 +3191,11 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45324</v>
+        <v>45331</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -2960,11 +3204,11 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45326</v>
+        <v>45332</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -2973,11 +3217,11 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45327</v>
+        <v>45334</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -2986,11 +3230,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45329</v>
+        <v>45336</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -2999,11 +3243,11 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45331</v>
+        <v>45344</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3012,63 +3256,63 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45332</v>
+        <v>45345</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45334</v>
+        <v>45347</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45336</v>
+        <v>45349</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45344</v>
+        <v>45351</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45345</v>
+        <v>45352</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3077,11 +3321,11 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45347</v>
+        <v>45354</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3090,50 +3334,50 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45349</v>
+        <v>45356</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45351</v>
+        <v>45359</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45352</v>
+        <v>45360</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45354</v>
+        <v>45362</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3142,50 +3386,50 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45356</v>
+        <v>45364</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45359</v>
+        <v>45366</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45360</v>
+        <v>45367</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45362</v>
+        <v>45370</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3194,11 +3438,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45364</v>
+        <v>45374</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3207,76 +3451,76 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45366</v>
+        <v>45376</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45367</v>
+        <v>45378</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45370</v>
+        <v>45380</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45374</v>
+        <v>45382</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45376</v>
+        <v>45383</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45378</v>
+        <v>45385</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3285,11 +3529,11 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45380</v>
+        <v>45387</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3298,11 +3542,11 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45382</v>
+        <v>45389</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3311,11 +3555,11 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45383</v>
+        <v>45391</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3324,92 +3568,40 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45385</v>
+        <v>45392</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45387</v>
+        <v>45394</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45389</v>
+        <v>45396</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45391</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>45392</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3034,6 +3034,67 @@
       </c>
       <c r="S42" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45315</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>106</v>
+      </c>
+      <c r="E43" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="G43" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="H43" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="J43" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>113</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="N43" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="O43" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>115.6</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3047,7 +3108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3074,24 +3135,24 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45315</v>
+        <v>45317</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45317</v>
+        <v>45318</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3100,11 +3161,11 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45318</v>
+        <v>45320</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3113,11 +3174,11 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3126,37 +3187,37 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45326</v>
+        <v>45327</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3165,11 +3226,11 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3178,37 +3239,37 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3217,11 +3278,11 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3230,24 +3291,24 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3256,11 +3317,11 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3269,11 +3330,11 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3282,7 +3343,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -3290,29 +3351,29 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3321,63 +3382,63 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3386,37 +3447,37 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3425,11 +3486,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3438,11 +3499,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3451,7 +3512,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -3459,16 +3520,16 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3477,11 +3538,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3490,11 +3551,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3503,11 +3564,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3516,11 +3577,11 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3529,11 +3590,11 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3542,11 +3603,11 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -3555,24 +3616,24 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3581,27 +3642,14 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -17,9 +17,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,12 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3094,6 +3097,128 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45317</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D44" t="n">
+        <v>104</v>
+      </c>
+      <c r="E44" t="n">
+        <v>103.2</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G44" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="J44" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>138</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="N44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O44" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>133.7</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="n">
+        <v>45318</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D45" t="n">
+        <v>122</v>
+      </c>
+      <c r="E45" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9</v>
+      </c>
+      <c r="H45" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="J45" t="n">
+        <v>123.8</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>134</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.651</v>
+      </c>
+      <c r="N45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>136</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3108,7 +3233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3134,12 +3259,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45317</v>
+      <c r="A2" s="3" t="n">
+        <v>45320</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3147,509 +3272,483 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45318</v>
+      <c r="A3" s="3" t="n">
+        <v>45322</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45324</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45326</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45329</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45331</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45332</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>UTA</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45322</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45324</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45345</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45347</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45351</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45354</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45356</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45359</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>45360</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>45366</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>45367</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>45370</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>45374</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>45380</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>45382</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>45389</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>OKC</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45326</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45329</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45331</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45332</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>45392</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>ATL</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45344</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45345</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45351</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45354</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45356</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45359</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45360</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>BRK</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45366</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>PHO</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45367</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45370</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45374</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B30" t="inlineStr">
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>45396</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>CLE</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45380</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45382</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45385</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45387</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45389</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>OKC</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45391</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45392</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
       <c r="C39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S45"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3165,7 +3165,7 @@
       <c r="A45" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="2" t="n">
         <v>45318</v>
       </c>
       <c r="C45" t="n">
@@ -3219,6 +3219,67 @@
         <v>1</v>
       </c>
       <c r="S45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D46" t="n">
+        <v>92</v>
+      </c>
+      <c r="E46" t="n">
+        <v>90.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="G46" t="n">
+        <v>13</v>
+      </c>
+      <c r="H46" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="J46" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>113</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="N46" t="n">
+        <v>9</v>
+      </c>
+      <c r="O46" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>124.4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3233,7 +3294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3260,11 +3321,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45320</v>
+        <v>45322</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3273,37 +3334,37 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45326</v>
+        <v>45327</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3312,11 +3373,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3325,37 +3386,37 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3364,11 +3425,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3377,24 +3438,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3403,11 +3464,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3416,11 +3477,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3429,7 +3490,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -3437,29 +3498,29 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3468,63 +3529,63 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3533,37 +3594,37 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3572,11 +3633,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3585,11 +3646,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3598,7 +3659,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -3606,16 +3667,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3624,11 +3685,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3637,11 +3698,11 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3650,11 +3711,11 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3663,11 +3724,11 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3676,11 +3737,11 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3689,11 +3750,11 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3702,24 +3763,24 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3728,27 +3789,14 @@
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3280,6 +3280,67 @@
         <v>1</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D47" t="n">
+        <v>110</v>
+      </c>
+      <c r="E47" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="G47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H47" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="J47" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>117</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="N47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O47" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,7 +3355,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3321,37 +3382,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45322</v>
+        <v>45324</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45326</v>
+        <v>45327</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3360,11 +3421,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3373,37 +3434,37 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3412,11 +3473,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3425,24 +3486,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3451,11 +3512,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3464,11 +3525,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3477,7 +3538,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -3485,29 +3546,29 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3516,63 +3577,63 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3581,37 +3642,37 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3620,11 +3681,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3633,11 +3694,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3646,7 +3707,7 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -3654,16 +3715,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3672,11 +3733,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3685,11 +3746,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3698,11 +3759,11 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3711,11 +3772,11 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3724,11 +3785,11 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3737,11 +3798,11 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3750,24 +3811,24 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3776,27 +3837,14 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3287,7 +3287,7 @@
       <c r="A47" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="2" t="n">
         <v>45322</v>
       </c>
       <c r="C47" t="n">
@@ -3341,6 +3341,67 @@
         <v>1</v>
       </c>
       <c r="S47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>45324</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D48" t="n">
+        <v>106</v>
+      </c>
+      <c r="E48" t="n">
+        <v>101.1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="G48" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H48" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.109</v>
+      </c>
+      <c r="J48" t="n">
+        <v>104.8</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>126</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N48" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="O48" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>124.6</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3355,7 +3416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3382,24 +3443,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45324</v>
+        <v>45326</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45326</v>
+        <v>45327</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3408,11 +3469,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45327</v>
+        <v>45329</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3421,37 +3482,37 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3460,11 +3521,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3473,24 +3534,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3499,11 +3560,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3512,11 +3573,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3525,7 +3586,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -3533,29 +3594,29 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3564,63 +3625,63 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3629,37 +3690,37 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3668,11 +3729,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3681,11 +3742,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3694,7 +3755,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -3702,16 +3763,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3720,11 +3781,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3733,11 +3794,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3746,11 +3807,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3759,11 +3820,11 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3772,11 +3833,11 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3785,11 +3846,11 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3798,24 +3859,24 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3824,27 +3885,14 @@
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -3348,7 +3348,7 @@
       <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="2" t="n">
         <v>45324</v>
       </c>
       <c r="C48" t="n">

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3402,6 +3402,128 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>45326</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-7</v>
+      </c>
+      <c r="D49" t="n">
+        <v>99</v>
+      </c>
+      <c r="E49" t="n">
+        <v>96.3</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H49" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="J49" t="n">
+        <v>102.8</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>115</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="N49" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="O49" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.152</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>119.4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-8</v>
+      </c>
+      <c r="D50" t="n">
+        <v>118</v>
+      </c>
+      <c r="E50" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J50" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>124</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="N50" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3416,7 +3538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3443,11 +3565,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45326</v>
+        <v>45329</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3456,24 +3578,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45327</v>
+        <v>45331</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45329</v>
+        <v>45332</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3482,24 +3604,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45331</v>
+        <v>45334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45332</v>
+        <v>45336</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3508,37 +3630,37 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45334</v>
+        <v>45344</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45336</v>
+        <v>45345</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3547,11 +3669,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45345</v>
+        <v>45349</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3560,24 +3682,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45347</v>
+        <v>45351</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45349</v>
+        <v>45352</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3586,37 +3708,37 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45351</v>
+        <v>45354</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45352</v>
+        <v>45356</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45354</v>
+        <v>45359</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3625,11 +3747,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45356</v>
+        <v>45360</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3638,11 +3760,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45359</v>
+        <v>45362</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3651,37 +3773,37 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45360</v>
+        <v>45364</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45362</v>
+        <v>45366</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45364</v>
+        <v>45367</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3690,24 +3812,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45366</v>
+        <v>45370</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45367</v>
+        <v>45374</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3716,11 +3838,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45370</v>
+        <v>45376</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3729,37 +3851,37 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45374</v>
+        <v>45378</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45376</v>
+        <v>45380</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3768,11 +3890,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3781,11 +3903,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45382</v>
+        <v>45385</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3794,11 +3916,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3807,11 +3929,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45385</v>
+        <v>45389</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3820,11 +3942,11 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3833,66 +3955,40 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45389</v>
+        <v>45392</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45392</v>
+        <v>45396</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3409,7 +3409,7 @@
       <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="2" t="n">
         <v>45326</v>
       </c>
       <c r="C49" t="n">
@@ -3470,7 +3470,7 @@
       <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="2" t="n">
         <v>45327</v>
       </c>
       <c r="C50" t="n">
@@ -3524,6 +3524,67 @@
         <v>1</v>
       </c>
       <c r="S50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>45329</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-9</v>
+      </c>
+      <c r="D51" t="n">
+        <v>117</v>
+      </c>
+      <c r="E51" t="n">
+        <v>94.7</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H51" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="J51" t="n">
+        <v>123.6</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>123</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="N51" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="O51" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3538,7 +3599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3565,37 +3626,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45329</v>
+        <v>45331</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3604,11 +3665,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3617,24 +3678,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3643,11 +3704,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3656,11 +3717,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3669,7 +3730,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -3677,29 +3738,29 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3708,63 +3769,63 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3773,37 +3834,37 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3812,11 +3873,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3825,11 +3886,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3838,7 +3899,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -3846,16 +3907,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3864,11 +3925,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3877,11 +3938,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3890,11 +3951,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3903,11 +3964,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3916,11 +3977,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3929,11 +3990,11 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3942,24 +4003,24 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3968,27 +4029,14 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3531,7 +3531,7 @@
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="2" t="n">
         <v>45329</v>
       </c>
       <c r="C51" t="n">
@@ -3585,6 +3585,67 @@
         <v>1</v>
       </c>
       <c r="S51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>45331</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-10</v>
+      </c>
+      <c r="D52" t="n">
+        <v>84</v>
+      </c>
+      <c r="E52" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.386</v>
+      </c>
+      <c r="G52" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H52" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.291</v>
+      </c>
+      <c r="J52" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>120</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="N52" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O52" t="n">
+        <v>20</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3599,7 +3660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3626,24 +3687,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45331</v>
+        <v>45332</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3652,11 +3713,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3665,24 +3726,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3691,11 +3752,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3704,11 +3765,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3717,7 +3778,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -3725,29 +3786,29 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3756,63 +3817,63 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3821,37 +3882,37 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3860,11 +3921,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3873,11 +3934,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3886,7 +3947,7 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -3894,16 +3955,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3912,11 +3973,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3925,11 +3986,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3938,11 +3999,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3951,11 +4012,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3964,11 +4025,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3977,11 +4038,11 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3990,24 +4051,24 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -4016,27 +4077,14 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3592,7 +3592,7 @@
       <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="2" t="n">
         <v>45331</v>
       </c>
       <c r="C52" t="n">
@@ -3647,6 +3647,67 @@
       </c>
       <c r="S52" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="n">
+        <v>115</v>
+      </c>
+      <c r="E53" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.671</v>
+      </c>
+      <c r="G53" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="H53" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="J53" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>106</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="N53" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="O53" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>109.1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3660,7 +3721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3687,11 +3748,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3700,11 +3761,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3713,24 +3774,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3739,11 +3800,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3752,11 +3813,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3765,7 +3826,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -3773,29 +3834,29 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3804,63 +3865,63 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3869,37 +3930,37 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3908,11 +3969,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3921,11 +3982,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3934,7 +3995,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -3942,16 +4003,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3960,11 +4021,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3973,11 +4034,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3986,11 +4047,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3999,11 +4060,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4012,11 +4073,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4025,11 +4086,11 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4038,24 +4099,24 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -4064,27 +4125,14 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3707,6 +3707,67 @@
         <v>1</v>
       </c>
       <c r="S53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>111</v>
+      </c>
+      <c r="E54" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="G54" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="J54" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>102</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="N54" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="O54" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,7 +3782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3748,11 +3809,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3761,24 +3822,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3787,11 +3848,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3800,11 +3861,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3813,7 +3874,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -3821,29 +3882,29 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3852,63 +3913,63 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3917,37 +3978,37 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3956,11 +4017,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3969,11 +4030,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3982,7 +4043,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -3990,16 +4051,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4008,11 +4069,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4021,11 +4082,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4034,11 +4095,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4047,11 +4108,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4060,11 +4121,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4073,11 +4134,11 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4086,24 +4147,24 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4112,27 +4173,14 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -3714,7 +3714,7 @@
       <c r="A54" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="2" t="n">
         <v>45334</v>
       </c>
       <c r="C54" t="n">

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3768,6 +3768,67 @@
         <v>1</v>
       </c>
       <c r="S54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C55" t="n">
+        <v>3</v>
+      </c>
+      <c r="D55" t="n">
+        <v>122</v>
+      </c>
+      <c r="E55" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="G55" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H55" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="J55" t="n">
+        <v>127.8</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>99</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="N55" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,7 +3843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3809,24 +3870,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3835,11 +3896,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3848,11 +3909,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3861,7 +3922,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -3869,29 +3930,29 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3900,63 +3961,63 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3965,37 +4026,37 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4004,11 +4065,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4017,11 +4078,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4030,7 +4091,7 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -4038,16 +4099,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4056,11 +4117,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4069,11 +4130,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4082,11 +4143,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4095,11 +4156,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4108,11 +4169,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4121,11 +4182,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4134,24 +4195,24 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4160,27 +4221,14 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -3775,7 +3775,7 @@
       <c r="A55" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="2" t="n">
         <v>45336</v>
       </c>
       <c r="C55" t="n">

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3829,6 +3829,67 @@
         <v>1</v>
       </c>
       <c r="S55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C56" t="n">
+        <v>4</v>
+      </c>
+      <c r="D56" t="n">
+        <v>115</v>
+      </c>
+      <c r="E56" t="n">
+        <v>97.8</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="G56" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H56" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="J56" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>107</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="N56" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>109.4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,7 +3904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3870,11 +3931,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45344</v>
+        <v>45345</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3883,11 +3944,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3896,11 +3957,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3909,7 +3970,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -3917,29 +3978,29 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3948,63 +4009,63 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4013,37 +4074,37 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4052,11 +4113,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4065,11 +4126,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4078,7 +4139,7 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -4086,16 +4147,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4104,11 +4165,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4117,11 +4178,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4130,11 +4191,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4143,11 +4204,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4156,11 +4217,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4169,11 +4230,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4182,24 +4243,24 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4208,27 +4269,14 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3836,7 +3836,7 @@
       <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="2" t="n">
         <v>45344</v>
       </c>
       <c r="C56" t="n">
@@ -3891,6 +3891,67 @@
       </c>
       <c r="S56" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="n">
+        <v>45345</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D57" t="n">
+        <v>84</v>
+      </c>
+      <c r="E57" t="n">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="G57" t="n">
+        <v>16.2</v>
+      </c>
+      <c r="H57" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="J57" t="n">
+        <v>87</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>97</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N57" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="O57" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3904,7 +3965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3931,11 +3992,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45345</v>
+        <v>45347</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3944,11 +4005,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3957,7 +4018,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -3965,29 +4026,29 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3996,63 +4057,63 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4061,37 +4122,37 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4100,11 +4161,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4113,11 +4174,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4126,7 +4187,7 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -4134,16 +4195,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4152,11 +4213,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4165,11 +4226,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4178,11 +4239,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4191,11 +4252,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4204,11 +4265,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4217,11 +4278,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4230,24 +4291,24 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4256,27 +4317,14 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3952,6 +3952,67 @@
       </c>
       <c r="S57" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>93</v>
+      </c>
+      <c r="E58" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G58" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J58" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>80</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="N58" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="O58" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3965,7 +4026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3992,11 +4053,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4005,7 +4066,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4013,29 +4074,29 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4044,63 +4105,63 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4109,37 +4170,37 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4148,11 +4209,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4161,11 +4222,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4174,7 +4235,7 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -4182,16 +4243,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4200,11 +4261,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4213,11 +4274,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4226,11 +4287,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4239,11 +4300,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4252,11 +4313,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4265,11 +4326,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4278,24 +4339,24 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4304,27 +4365,14 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -3958,7 +3958,7 @@
       <c r="A58" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="2" t="n">
         <v>45347</v>
       </c>
       <c r="C58" t="n">

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4013,6 +4013,67 @@
       </c>
       <c r="S58" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>85</v>
+      </c>
+      <c r="E59" t="n">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="G59" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H59" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="J59" t="n">
+        <v>90.3</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>123</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="N59" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O59" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>130.7</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4026,7 +4087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4053,7 +4114,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45349</v>
+        <v>45351</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4061,29 +4122,29 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4092,63 +4153,63 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4157,37 +4218,37 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4196,11 +4257,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4209,11 +4270,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4222,7 +4283,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -4230,16 +4291,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4248,11 +4309,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4261,11 +4322,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4274,11 +4335,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4287,11 +4348,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4300,11 +4361,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4313,11 +4374,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4326,24 +4387,24 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4352,27 +4413,14 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -4019,7 +4019,7 @@
       <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="2" t="n">
         <v>45349</v>
       </c>
       <c r="C59" t="n">

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4073,6 +4073,67 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>45351</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D60" t="n">
+        <v>99</v>
+      </c>
+      <c r="E60" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="G60" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H60" t="n">
+        <v>20</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="J60" t="n">
+        <v>107.4</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>111</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.547</v>
+      </c>
+      <c r="N60" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O60" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>120.4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4087,7 +4148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4114,24 +4175,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45351</v>
+        <v>45352</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4140,63 +4201,63 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4205,37 +4266,37 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4244,11 +4305,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4257,11 +4318,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4270,7 +4331,7 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -4278,16 +4339,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4296,11 +4357,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4309,11 +4370,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4322,11 +4383,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4335,11 +4396,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4348,11 +4409,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4361,11 +4422,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4374,24 +4435,24 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4400,27 +4461,14 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4080,7 +4080,7 @@
       <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="2" t="n">
         <v>45351</v>
       </c>
       <c r="C60" t="n">
@@ -4134,6 +4134,67 @@
         <v>1</v>
       </c>
       <c r="S60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D61" t="n">
+        <v>114</v>
+      </c>
+      <c r="E61" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="H61" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="J61" t="n">
+        <v>129.9</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>121</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.578</v>
+      </c>
+      <c r="N61" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O61" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>137.9</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4148,7 +4209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4175,11 +4236,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45352</v>
+        <v>45354</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4188,63 +4249,63 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4253,37 +4314,37 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4292,11 +4353,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4305,11 +4366,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4318,7 +4379,7 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -4326,16 +4387,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4344,11 +4405,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4357,11 +4418,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4370,11 +4431,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4383,11 +4444,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4396,11 +4457,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4409,11 +4470,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4422,24 +4483,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4448,27 +4509,14 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -4141,7 +4141,7 @@
       <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="2" t="n">
         <v>45352</v>
       </c>
       <c r="C61" t="n">

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4195,6 +4195,67 @@
         <v>0</v>
       </c>
       <c r="S61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>45354</v>
+      </c>
+      <c r="C62" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D62" t="n">
+        <v>106</v>
+      </c>
+      <c r="E62" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="G62" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H62" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="J62" t="n">
+        <v>105.5</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>111</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="N62" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="O62" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>110.5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4209,7 +4270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4236,63 +4297,63 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45354</v>
+        <v>45356</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4301,37 +4362,37 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4340,11 +4401,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4353,11 +4414,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4366,7 +4427,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -4374,16 +4435,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4392,11 +4453,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4405,11 +4466,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4418,11 +4479,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4431,11 +4492,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4444,11 +4505,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4457,11 +4518,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4470,24 +4531,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4496,27 +4557,14 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -4202,7 +4202,7 @@
       <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="2" t="n">
         <v>45354</v>
       </c>
       <c r="C62" t="n">

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4256,6 +4256,67 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>45356</v>
+      </c>
+      <c r="C63" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>89</v>
+      </c>
+      <c r="E63" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="G63" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="H63" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="J63" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>101</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="N63" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="O63" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.108</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>111.7</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4270,7 +4331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4297,50 +4358,50 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45356</v>
+        <v>45359</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4349,37 +4410,37 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4388,11 +4449,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4401,11 +4462,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4414,7 +4475,7 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -4422,16 +4483,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4440,11 +4501,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4453,11 +4514,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4466,11 +4527,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4479,11 +4540,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4492,11 +4553,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4505,11 +4566,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4518,24 +4579,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4544,27 +4605,14 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -4263,7 +4263,7 @@
       <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="2" t="n">
         <v>45356</v>
       </c>
       <c r="C63" t="n">

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4317,6 +4317,67 @@
         <v>1</v>
       </c>
       <c r="S63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>45359</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>100</v>
+      </c>
+      <c r="E64" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G64" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H64" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J64" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>112</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.529</v>
+      </c>
+      <c r="N64" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="O64" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>114.8</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4331,7 +4392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4358,37 +4419,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45359</v>
+        <v>45360</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4397,37 +4458,37 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4436,11 +4497,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4449,11 +4510,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4462,7 +4523,7 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -4470,16 +4531,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4488,11 +4549,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4501,11 +4562,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4514,11 +4575,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4527,11 +4588,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4540,11 +4601,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4553,11 +4614,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4566,24 +4627,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4592,27 +4653,14 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4324,7 +4324,7 @@
       <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="2" t="n">
         <v>45359</v>
       </c>
       <c r="C64" t="n">
@@ -4379,6 +4379,67 @@
       </c>
       <c r="S64" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>110</v>
+      </c>
+      <c r="E65" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.611</v>
+      </c>
+      <c r="G65" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="H65" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.136</v>
+      </c>
+      <c r="J65" t="n">
+        <v>117.9</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>99</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="N65" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="O65" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>106.1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4392,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4419,24 +4480,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4445,37 +4506,37 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4484,11 +4545,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4497,11 +4558,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4510,7 +4571,7 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -4518,16 +4579,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4536,11 +4597,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4549,11 +4610,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4562,11 +4623,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4575,11 +4636,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4588,11 +4649,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4601,11 +4662,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4614,24 +4675,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4640,27 +4701,14 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4385,7 +4385,7 @@
       <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="2" t="n">
         <v>45360</v>
       </c>
       <c r="C65" t="n">
@@ -4440,6 +4440,67 @@
       </c>
       <c r="S65" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>97</v>
+      </c>
+      <c r="E66" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G66" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="H66" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="J66" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>114</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="N66" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="O66" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4453,7 +4514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4480,11 +4541,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4493,37 +4554,37 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4532,11 +4593,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4545,11 +4606,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4558,7 +4619,7 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -4566,16 +4627,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4584,11 +4645,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4597,11 +4658,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4610,11 +4671,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4623,11 +4684,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4636,11 +4697,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4649,11 +4710,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4662,24 +4723,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4688,27 +4749,14 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -4446,7 +4446,7 @@
       <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="2" t="n">
         <v>45362</v>
       </c>
       <c r="C66" t="n">

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4501,6 +4501,67 @@
       </c>
       <c r="S66" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>110</v>
+      </c>
+      <c r="E67" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="G67" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="H67" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>114.5</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>98</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="N67" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="O67" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>102</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4514,7 +4575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4541,37 +4602,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45364</v>
+        <v>45366</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4580,11 +4641,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4593,11 +4654,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4606,7 +4667,7 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -4614,16 +4675,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4632,11 +4693,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4645,11 +4706,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4658,11 +4719,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4671,11 +4732,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4684,11 +4745,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4697,11 +4758,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4710,24 +4771,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4736,27 +4797,14 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -4507,7 +4507,7 @@
       <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="2" t="n">
         <v>45364</v>
       </c>
       <c r="C67" t="n">

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4562,6 +4562,67 @@
       </c>
       <c r="S67" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>45366</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>96</v>
+      </c>
+      <c r="E68" t="n">
+        <v>95</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="G68" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H68" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.213</v>
+      </c>
+      <c r="J68" t="n">
+        <v>101</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>107</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="N68" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O68" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4575,7 +4636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4602,24 +4663,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45366</v>
+        <v>45367</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45367</v>
+        <v>45370</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4628,11 +4689,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45370</v>
+        <v>45374</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4641,11 +4702,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4654,7 +4715,7 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -4662,16 +4723,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4680,11 +4741,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4693,11 +4754,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4706,11 +4767,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4719,11 +4780,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4732,11 +4793,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4745,11 +4806,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4758,24 +4819,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4784,27 +4845,14 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4568,7 +4568,7 @@
       <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="2" t="n">
         <v>45366</v>
       </c>
       <c r="C68" t="n">
@@ -4622,6 +4622,128 @@
         <v>1</v>
       </c>
       <c r="S68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D69" t="n">
+        <v>98</v>
+      </c>
+      <c r="E69" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="G69" t="n">
+        <v>15.1</v>
+      </c>
+      <c r="H69" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="J69" t="n">
+        <v>105.9</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>109</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="N69" t="n">
+        <v>14</v>
+      </c>
+      <c r="O69" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>117.8</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>45370</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D70" t="n">
+        <v>92</v>
+      </c>
+      <c r="E70" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="G70" t="n">
+        <v>17</v>
+      </c>
+      <c r="H70" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.089</v>
+      </c>
+      <c r="J70" t="n">
+        <v>99</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>112</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.617</v>
+      </c>
+      <c r="N70" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="O70" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>120.6</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4636,7 +4758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4663,11 +4785,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45367</v>
+        <v>45374</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4676,11 +4798,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45370</v>
+        <v>45376</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4689,37 +4811,37 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45374</v>
+        <v>45378</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45376</v>
+        <v>45380</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4728,11 +4850,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4741,11 +4863,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45382</v>
+        <v>45385</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4754,11 +4876,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4767,11 +4889,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45385</v>
+        <v>45389</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4780,11 +4902,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4793,66 +4915,40 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45389</v>
+        <v>45392</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45392</v>
+        <v>45396</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -4629,7 +4629,7 @@
       <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="2" t="n">
         <v>45367</v>
       </c>
       <c r="C69" t="n">
@@ -4690,7 +4690,7 @@
       <c r="A70" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="2" t="n">
         <v>45370</v>
       </c>
       <c r="C70" t="n">

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4744,6 +4744,67 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-4</v>
+      </c>
+      <c r="D71" t="n">
+        <v>91</v>
+      </c>
+      <c r="E71" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="G71" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H71" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="J71" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>132</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="N71" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O71" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>146.1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4758,7 +4819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4785,11 +4846,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4798,7 +4859,7 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -4806,16 +4867,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4824,11 +4885,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4837,11 +4898,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4850,11 +4911,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4863,11 +4924,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4876,11 +4937,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4889,11 +4950,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4902,24 +4963,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4928,27 +4989,14 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -4751,7 +4751,7 @@
       <c r="A71" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="2" t="n">
         <v>45374</v>
       </c>
       <c r="C71" t="n">

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4805,6 +4805,67 @@
         <v>0</v>
       </c>
       <c r="S71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>92</v>
+      </c>
+      <c r="E72" t="n">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="G72" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.188</v>
+      </c>
+      <c r="J72" t="n">
+        <v>100.7</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>115</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="N72" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="O72" t="n">
+        <v>25</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4819,7 +4880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4846,7 +4907,7 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -4854,16 +4915,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4872,11 +4933,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4885,11 +4946,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4898,11 +4959,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4911,11 +4972,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4924,11 +4985,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4937,11 +4998,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4950,24 +5011,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4976,27 +5037,14 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -4812,7 +4812,7 @@
       <c r="A72" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="2" t="n">
         <v>45376</v>
       </c>
       <c r="C72" t="n">

--- a/data/CurrentSeason/CHO.xlsx
+++ b/data/CurrentSeason/CHO.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4867,6 +4867,67 @@
       </c>
       <c r="S72" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>118</v>
+      </c>
+      <c r="E73" t="n">
+        <v>92</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="G73" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="H73" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="J73" t="n">
+        <v>128.3</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>111</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="N73" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="O73" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>120.7</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4880,7 +4941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4907,11 +4968,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4920,11 +4981,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4933,11 +4994,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4946,11 +5007,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4959,11 +5020,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4972,11 +5033,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4985,11 +5046,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4998,24 +5059,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45391</v>
+        <v>45392</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45392</v>
+        <v>45394</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -5024,27 +5085,14 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>
